--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Bmp2-Bmpr1a.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Bmp2-Bmpr1a.xlsx
@@ -531,22 +531,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>0.55635</v>
+        <v>1.729584333333333</v>
       </c>
       <c r="H2">
-        <v>1.66905</v>
+        <v>5.188753</v>
       </c>
       <c r="I2">
-        <v>0.1200566932586554</v>
+        <v>0.2476387648475193</v>
       </c>
       <c r="J2">
-        <v>0.1200566932586554</v>
+        <v>0.2476387648475193</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>3.767160666666667</v>
+        <v>4.993165333333334</v>
       </c>
       <c r="N2">
-        <v>11.301482</v>
+        <v>14.979496</v>
       </c>
       <c r="O2">
-        <v>0.05327117368020191</v>
+        <v>0.06779298131037136</v>
       </c>
       <c r="P2">
-        <v>0.05327117368020191</v>
+        <v>0.06779298131037137</v>
       </c>
       <c r="Q2">
-        <v>2.0958598369</v>
+        <v>8.636100534276446</v>
       </c>
       <c r="R2">
-        <v>18.8627385321</v>
+        <v>77.72490480848801</v>
       </c>
       <c r="S2">
-        <v>0.006395560958052556</v>
+        <v>0.01678817015703132</v>
       </c>
       <c r="T2">
-        <v>0.006395560958052556</v>
+        <v>0.01678817015703133</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,22 +593,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>0.55635</v>
+        <v>1.729584333333333</v>
       </c>
       <c r="H3">
-        <v>1.66905</v>
+        <v>5.188753</v>
       </c>
       <c r="I3">
-        <v>0.1200566932586554</v>
+        <v>0.2476387648475193</v>
       </c>
       <c r="J3">
-        <v>0.1200566932586554</v>
+        <v>0.2476387648475193</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>118.340805</v>
       </c>
       <c r="O3">
-        <v>0.5578165391591924</v>
+        <v>0.5355771637189464</v>
       </c>
       <c r="P3">
-        <v>0.5578165391591923</v>
+        <v>0.5355771637189464</v>
       </c>
       <c r="Q3">
-        <v>21.94630228725</v>
+        <v>68.22680077401834</v>
       </c>
       <c r="R3">
-        <v>197.51672058525</v>
+        <v>614.0412069661651</v>
       </c>
       <c r="S3">
-        <v>0.06696960913643987</v>
+        <v>0.1326296673038975</v>
       </c>
       <c r="T3">
-        <v>0.06696960913643987</v>
+        <v>0.1326296673038975</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,22 +655,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>0.55635</v>
+        <v>1.729584333333333</v>
       </c>
       <c r="H4">
-        <v>1.66905</v>
+        <v>5.188753</v>
       </c>
       <c r="I4">
-        <v>0.1200566932586554</v>
+        <v>0.2476387648475193</v>
       </c>
       <c r="J4">
-        <v>0.1200566932586554</v>
+        <v>0.2476387648475193</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>26.33350433333333</v>
+        <v>29.08216166666666</v>
       </c>
       <c r="N4">
-        <v>79.000513</v>
+        <v>87.24648499999999</v>
       </c>
       <c r="O4">
-        <v>0.372380370012362</v>
+        <v>0.3948530262300277</v>
       </c>
       <c r="P4">
-        <v>0.372380370012362</v>
+        <v>0.3948530262300277</v>
       </c>
       <c r="Q4">
-        <v>14.65064513585</v>
+        <v>50.30005119813389</v>
       </c>
       <c r="R4">
-        <v>131.85580622265</v>
+        <v>452.700460783205</v>
       </c>
       <c r="S4">
-        <v>0.04470675585811874</v>
+        <v>0.09778091571190918</v>
       </c>
       <c r="T4">
-        <v>0.04470675585811874</v>
+        <v>0.09778091571190919</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,52 +717,52 @@
         <v>23</v>
       </c>
       <c r="E5">
+        <v>3</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>1.729584333333333</v>
+      </c>
+      <c r="H5">
+        <v>5.188753</v>
+      </c>
+      <c r="I5">
+        <v>0.2476387648475193</v>
+      </c>
+      <c r="J5">
+        <v>0.2476387648475193</v>
+      </c>
+      <c r="K5">
         <v>2</v>
       </c>
-      <c r="F5">
+      <c r="L5">
         <v>0.6666666666666666</v>
       </c>
-      <c r="G5">
-        <v>0.55635</v>
-      </c>
-      <c r="H5">
-        <v>1.66905</v>
-      </c>
-      <c r="I5">
-        <v>0.1200566932586554</v>
-      </c>
-      <c r="J5">
-        <v>0.1200566932586554</v>
-      </c>
-      <c r="K5">
-        <v>3</v>
-      </c>
-      <c r="L5">
-        <v>1</v>
-      </c>
       <c r="M5">
-        <v>1.169082333333333</v>
+        <v>0.130869</v>
       </c>
       <c r="N5">
-        <v>3.507247</v>
+        <v>0.392607</v>
       </c>
       <c r="O5">
-        <v>0.01653191714824366</v>
+        <v>0.001776828740654623</v>
       </c>
       <c r="P5">
-        <v>0.01653191714824366</v>
+        <v>0.001776828740654624</v>
       </c>
       <c r="Q5">
-        <v>0.6504189561499999</v>
+        <v>0.226348972119</v>
       </c>
       <c r="R5">
-        <v>5.853770605349999</v>
+        <v>2.037140749071</v>
       </c>
       <c r="S5">
-        <v>0.001984767306044194</v>
+        <v>0.0004400116746812841</v>
       </c>
       <c r="T5">
-        <v>0.001984767306044194</v>
+        <v>0.0004400116746812842</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>4.835809</v>
       </c>
       <c r="I6">
-        <v>0.3478453238491627</v>
+        <v>0.2307941364328804</v>
       </c>
       <c r="J6">
-        <v>0.3478453238491627</v>
+        <v>0.2307941364328804</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>3.767160666666667</v>
+        <v>4.993165333333334</v>
       </c>
       <c r="N6">
-        <v>11.301482</v>
+        <v>14.979496</v>
       </c>
       <c r="O6">
-        <v>0.05327117368020191</v>
+        <v>0.06779298131037136</v>
       </c>
       <c r="P6">
-        <v>0.05327117368020191</v>
+        <v>0.06779298131037137</v>
       </c>
       <c r="Q6">
-        <v>6.072423152104223</v>
+        <v>8.048664619140446</v>
       </c>
       <c r="R6">
-        <v>54.65180836893801</v>
+        <v>72.43798157226401</v>
       </c>
       <c r="S6">
-        <v>0.01853012866061483</v>
+        <v>0.01564622257773756</v>
       </c>
       <c r="T6">
-        <v>0.01853012866061483</v>
+        <v>0.01564622257773756</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>4.835809</v>
       </c>
       <c r="I7">
-        <v>0.3478453238491627</v>
+        <v>0.2307941364328804</v>
       </c>
       <c r="J7">
-        <v>0.3478453238491627</v>
+        <v>0.2307941364328804</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,10 +871,10 @@
         <v>118.340805</v>
       </c>
       <c r="O7">
-        <v>0.5578165391591924</v>
+        <v>0.5355771637189464</v>
       </c>
       <c r="P7">
-        <v>0.5578165391591923</v>
+        <v>0.5355771637189464</v>
       </c>
       <c r="Q7">
         <v>63.58594776513834</v>
@@ -883,10 +883,10 @@
         <v>572.273529886245</v>
       </c>
       <c r="S7">
-        <v>0.1940338747122484</v>
+        <v>0.1236080689936856</v>
       </c>
       <c r="T7">
-        <v>0.1940338747122484</v>
+        <v>0.1236080689936856</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>4.835809</v>
       </c>
       <c r="I8">
-        <v>0.3478453238491627</v>
+        <v>0.2307941364328804</v>
       </c>
       <c r="J8">
-        <v>0.3478453238491627</v>
+        <v>0.2307941364328804</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>26.33350433333333</v>
+        <v>29.08216166666666</v>
       </c>
       <c r="N8">
-        <v>79.000513</v>
+        <v>87.24648499999999</v>
       </c>
       <c r="O8">
-        <v>0.372380370012362</v>
+        <v>0.3948530262300277</v>
       </c>
       <c r="P8">
-        <v>0.372380370012362</v>
+        <v>0.3948530262300277</v>
       </c>
       <c r="Q8">
-        <v>42.44793241889078</v>
+        <v>46.87859304237389</v>
       </c>
       <c r="R8">
-        <v>382.031391770017</v>
+        <v>421.907337381365</v>
       </c>
       <c r="S8">
-        <v>0.1295307704020211</v>
+        <v>0.0911297632066687</v>
       </c>
       <c r="T8">
-        <v>0.1295307704020211</v>
+        <v>0.09112976320666871</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,40 +977,40 @@
         <v>4.835809</v>
       </c>
       <c r="I9">
-        <v>0.3478453238491627</v>
+        <v>0.2307941364328804</v>
       </c>
       <c r="J9">
-        <v>0.3478453238491627</v>
+        <v>0.2307941364328804</v>
       </c>
       <c r="K9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L9">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M9">
-        <v>1.169082333333333</v>
+        <v>0.130869</v>
       </c>
       <c r="N9">
-        <v>3.507247</v>
+        <v>0.392607</v>
       </c>
       <c r="O9">
-        <v>0.01653191714824366</v>
+        <v>0.001776828740654623</v>
       </c>
       <c r="P9">
-        <v>0.01653191714824366</v>
+        <v>0.001776828740654624</v>
       </c>
       <c r="Q9">
-        <v>1.884486289758111</v>
+        <v>0.210952496007</v>
       </c>
       <c r="R9">
-        <v>16.960376607823</v>
+        <v>1.898572464063</v>
       </c>
       <c r="S9">
-        <v>0.005750550074278343</v>
+        <v>0.0004100816547885062</v>
       </c>
       <c r="T9">
-        <v>0.005750550074278343</v>
+        <v>0.0004100816547885063</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>2.086394</v>
+        <v>2.743651333333334</v>
       </c>
       <c r="H10">
-        <v>6.259182</v>
+        <v>8.230954000000001</v>
       </c>
       <c r="I10">
-        <v>0.4502301868872095</v>
+        <v>0.3928310486309039</v>
       </c>
       <c r="J10">
-        <v>0.4502301868872095</v>
+        <v>0.3928310486309038</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>3.767160666666667</v>
+        <v>4.993165333333334</v>
       </c>
       <c r="N10">
-        <v>11.301482</v>
+        <v>14.979496</v>
       </c>
       <c r="O10">
-        <v>0.05327117368020191</v>
+        <v>0.06779298131037136</v>
       </c>
       <c r="P10">
-        <v>0.05327117368020191</v>
+        <v>0.06779298131037137</v>
       </c>
       <c r="Q10">
-        <v>7.859781411969333</v>
+        <v>13.69950472435378</v>
       </c>
       <c r="R10">
-        <v>70.738032707724</v>
+        <v>123.295542519184</v>
       </c>
       <c r="S10">
-        <v>0.0239842904817383</v>
+        <v>0.02663118793796845</v>
       </c>
       <c r="T10">
-        <v>0.0239842904817383</v>
+        <v>0.02663118793796845</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>2.086394</v>
+        <v>2.743651333333334</v>
       </c>
       <c r="H11">
-        <v>6.259182</v>
+        <v>8.230954000000001</v>
       </c>
       <c r="I11">
-        <v>0.4502301868872095</v>
+        <v>0.3928310486309039</v>
       </c>
       <c r="J11">
-        <v>0.4502301868872095</v>
+        <v>0.3928310486309038</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>118.340805</v>
       </c>
       <c r="O11">
-        <v>0.5578165391591924</v>
+        <v>0.5355771637189464</v>
       </c>
       <c r="P11">
-        <v>0.5578165391591923</v>
+        <v>0.5355771637189464</v>
       </c>
       <c r="Q11">
-        <v>82.30184850239</v>
+        <v>108.2286358086634</v>
       </c>
       <c r="R11">
-        <v>740.7166365215101</v>
+        <v>974.0577222779701</v>
       </c>
       <c r="S11">
-        <v>0.2511458446744196</v>
+        <v>0.210391338846479</v>
       </c>
       <c r="T11">
-        <v>0.2511458446744196</v>
+        <v>0.210391338846479</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>2.086394</v>
+        <v>2.743651333333334</v>
       </c>
       <c r="H12">
-        <v>6.259182</v>
+        <v>8.230954000000001</v>
       </c>
       <c r="I12">
-        <v>0.4502301868872095</v>
+        <v>0.3928310486309039</v>
       </c>
       <c r="J12">
-        <v>0.4502301868872095</v>
+        <v>0.3928310486309038</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>26.33350433333333</v>
+        <v>29.08216166666666</v>
       </c>
       <c r="N12">
-        <v>79.000513</v>
+        <v>87.24648499999999</v>
       </c>
       <c r="O12">
-        <v>0.372380370012362</v>
+        <v>0.3948530262300277</v>
       </c>
       <c r="P12">
-        <v>0.372380370012362</v>
+        <v>0.3948530262300277</v>
       </c>
       <c r="Q12">
-        <v>54.94206544004066</v>
+        <v>79.79131163296556</v>
       </c>
       <c r="R12">
-        <v>494.478588960366</v>
+        <v>718.12180469669</v>
       </c>
       <c r="S12">
-        <v>0.167656883583794</v>
+        <v>0.1551105283490276</v>
       </c>
       <c r="T12">
-        <v>0.167656883583794</v>
+        <v>0.1551105283490276</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,46 +1219,46 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>2.086394</v>
+        <v>2.743651333333334</v>
       </c>
       <c r="H13">
-        <v>6.259182</v>
+        <v>8.230954000000001</v>
       </c>
       <c r="I13">
-        <v>0.4502301868872095</v>
+        <v>0.3928310486309039</v>
       </c>
       <c r="J13">
-        <v>0.4502301868872095</v>
+        <v>0.3928310486309038</v>
       </c>
       <c r="K13">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L13">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M13">
-        <v>1.169082333333333</v>
+        <v>0.130869</v>
       </c>
       <c r="N13">
-        <v>3.507247</v>
+        <v>0.392607</v>
       </c>
       <c r="O13">
-        <v>0.01653191714824366</v>
+        <v>0.001776828740654623</v>
       </c>
       <c r="P13">
-        <v>0.01653191714824366</v>
+        <v>0.001776828740654624</v>
       </c>
       <c r="Q13">
-        <v>2.439166365772666</v>
+        <v>0.3590589063420001</v>
       </c>
       <c r="R13">
-        <v>21.952497291954</v>
+        <v>3.231530157078001</v>
       </c>
       <c r="S13">
-        <v>0.007443168147257608</v>
+        <v>0.000697993497428884</v>
       </c>
       <c r="T13">
-        <v>0.007443168147257608</v>
+        <v>0.000697993497428884</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1275,22 +1275,22 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G14">
-        <v>0.3793803333333334</v>
+        <v>0.8991316666666668</v>
       </c>
       <c r="H14">
-        <v>1.138141</v>
+        <v>2.697395</v>
       </c>
       <c r="I14">
-        <v>0.08186779600497247</v>
+        <v>0.1287360500886965</v>
       </c>
       <c r="J14">
-        <v>0.08186779600497246</v>
+        <v>0.1287360500886965</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>3.767160666666667</v>
+        <v>4.993165333333334</v>
       </c>
       <c r="N14">
-        <v>11.301482</v>
+        <v>14.979496</v>
       </c>
       <c r="O14">
-        <v>0.05327117368020191</v>
+        <v>0.06779298131037136</v>
       </c>
       <c r="P14">
-        <v>0.05327117368020191</v>
+        <v>0.06779298131037137</v>
       </c>
       <c r="Q14">
-        <v>1.429186669440222</v>
+        <v>4.489513068102223</v>
       </c>
       <c r="R14">
-        <v>12.862680024962</v>
+        <v>40.40561761292</v>
       </c>
       <c r="S14">
-        <v>0.004361193579796229</v>
+        <v>0.008727400637634034</v>
       </c>
       <c r="T14">
-        <v>0.004361193579796229</v>
+        <v>0.008727400637634036</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1337,22 +1337,22 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G15">
-        <v>0.3793803333333334</v>
+        <v>0.8991316666666668</v>
       </c>
       <c r="H15">
-        <v>1.138141</v>
+        <v>2.697395</v>
       </c>
       <c r="I15">
-        <v>0.08186779600497247</v>
+        <v>0.1287360500886965</v>
       </c>
       <c r="J15">
-        <v>0.08186779600497246</v>
+        <v>0.1287360500886965</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,22 +1367,22 @@
         <v>118.340805</v>
       </c>
       <c r="O15">
-        <v>0.5578165391591924</v>
+        <v>0.5355771637189464</v>
       </c>
       <c r="P15">
-        <v>0.5578165391591923</v>
+        <v>0.5355771637189464</v>
       </c>
       <c r="Q15">
-        <v>14.96539134927834</v>
+        <v>35.46798841144167</v>
       </c>
       <c r="R15">
-        <v>134.688522143505</v>
+        <v>319.211895702975</v>
       </c>
       <c r="S15">
-        <v>0.0456672106360845</v>
+        <v>0.0689480885748843</v>
       </c>
       <c r="T15">
-        <v>0.04566721063608448</v>
+        <v>0.0689480885748843</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1399,22 +1399,22 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G16">
-        <v>0.3793803333333334</v>
+        <v>0.8991316666666668</v>
       </c>
       <c r="H16">
-        <v>1.138141</v>
+        <v>2.697395</v>
       </c>
       <c r="I16">
-        <v>0.08186779600497247</v>
+        <v>0.1287360500886965</v>
       </c>
       <c r="J16">
-        <v>0.08186779600497246</v>
+        <v>0.1287360500886965</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>26.33350433333333</v>
+        <v>29.08216166666666</v>
       </c>
       <c r="N16">
-        <v>79.000513</v>
+        <v>87.24648499999999</v>
       </c>
       <c r="O16">
-        <v>0.372380370012362</v>
+        <v>0.3948530262300277</v>
       </c>
       <c r="P16">
-        <v>0.372380370012362</v>
+        <v>0.3948530262300277</v>
       </c>
       <c r="Q16">
-        <v>9.990413651814778</v>
+        <v>26.14869248961945</v>
       </c>
       <c r="R16">
-        <v>89.913722866333</v>
+        <v>235.338232406575</v>
       </c>
       <c r="S16">
-        <v>0.03048596016842822</v>
+        <v>0.05083181896242224</v>
       </c>
       <c r="T16">
-        <v>0.03048596016842822</v>
+        <v>0.05083181896242225</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,52 +1461,52 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G17">
-        <v>0.3793803333333334</v>
+        <v>0.8991316666666668</v>
       </c>
       <c r="H17">
-        <v>1.138141</v>
+        <v>2.697395</v>
       </c>
       <c r="I17">
-        <v>0.08186779600497247</v>
+        <v>0.1287360500886965</v>
       </c>
       <c r="J17">
-        <v>0.08186779600497246</v>
+        <v>0.1287360500886965</v>
       </c>
       <c r="K17">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L17">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M17">
-        <v>1.169082333333333</v>
+        <v>0.130869</v>
       </c>
       <c r="N17">
-        <v>3.507247</v>
+        <v>0.392607</v>
       </c>
       <c r="O17">
-        <v>0.01653191714824366</v>
+        <v>0.001776828740654623</v>
       </c>
       <c r="P17">
-        <v>0.01653191714824366</v>
+        <v>0.001776828740654624</v>
       </c>
       <c r="Q17">
-        <v>0.4435268453141111</v>
+        <v>0.117668462085</v>
       </c>
       <c r="R17">
-        <v>3.991741607827</v>
+        <v>1.059016158765</v>
       </c>
       <c r="S17">
-        <v>0.001353431620663519</v>
+        <v>0.0002287419137559491</v>
       </c>
       <c r="T17">
-        <v>0.001353431620663518</v>
+        <v>0.0002287419137559492</v>
       </c>
     </row>
   </sheetData>
